--- a/static/templates/Шаблон Акт на списание example.xlsx
+++ b/static/templates/Шаблон Акт на списание example.xlsx
@@ -20,11 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">«Утверждаю»
-Руководитель ПК «Серышевский»
-ИП Мельниченко Д.В.
+Руководитель ООО «Рога»
+ИП Иванов И.П
 «___» _____________ 20___год.
 _________________
 </t>
@@ -57,13 +57,7 @@
     <t xml:space="preserve">Руководитель СК</t>
   </si>
   <si>
-    <t xml:space="preserve">Жигульская Д.Я.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кладовщик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Березовская А.В.</t>
   </si>
   <si>
     <r>
@@ -122,13 +116,13 @@
     <t xml:space="preserve">Причина списания</t>
   </si>
   <si>
-    <t xml:space="preserve">Йогурт термостатный двухслойный Киви-Яблоко-Семена льна 4% 200гр</t>
+    <t xml:space="preserve">Товар для списания</t>
   </si>
   <si>
     <t xml:space="preserve">шт</t>
   </si>
   <si>
-    <t xml:space="preserve">Отдел продаж Благовещенск</t>
+    <t xml:space="preserve">Отдел продаж </t>
   </si>
   <si>
     <t xml:space="preserve">срок</t>
@@ -632,7 +626,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L:L"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -818,9 +812,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="7"/>
@@ -861,13 +853,11 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="7"/>
@@ -905,7 +895,7 @@
     <row r="22" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -932,7 +922,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -947,35 +937,35 @@
     </row>
     <row r="25" s="23" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -983,18 +973,18 @@
         <v>3</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="28" t="n">
         <v>46056</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1024,9 +1014,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="J28" s="12"/>
       <c r="K28" s="34"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,7 +1028,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
       <c r="H29" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="15" t="s">
@@ -1054,15 +1042,15 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="17" t="str">
+      <c r="J30" s="17" t="n">
         <f aca="false">H19</f>
-        <v>Березовская А.В.</v>
+        <v>0</v>
       </c>
       <c r="K30" s="7"/>
     </row>
@@ -1077,7 +1065,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
       <c r="H31" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">

--- a/static/templates/Шаблон Акт на списание example.xlsx
+++ b/static/templates/Шаблон Акт на списание example.xlsx
@@ -626,10 +626,10 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.29296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.42"/>
@@ -1168,7 +1168,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="59" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
